--- a/Dataset/2_label/V1_5 divisions_per_second.xlsx
+++ b/Dataset/2_label/V1_5 divisions_per_second.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM_Gauge\Dataset\2_label\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLM_Gauge\VLM_gauge\Dataset\2_label\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74D6CE4-6E1A-4646-BD7C-144C25625D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB64BE6-F3B8-4A3D-B6CD-3BA1184E3AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ground_Truth" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
+    <sheet name="Ground_Truth" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="40">
   <si>
     <t>sequence_id</t>
   </si>
@@ -44,13 +45,111 @@
   </si>
   <si>
     <t>constant_velocity</t>
+  </si>
+  <si>
+    <t>Column (Header)</t>
+  </si>
+  <si>
+    <t>Content / Example</t>
+  </si>
+  <si>
+    <t>Original Field Reference</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>instrument_metadata.type</t>
+  </si>
+  <si>
+    <t>manufacturer_range_min</t>
+  </si>
+  <si>
+    <t>instrument_metadata.manufacturer_range[0]</t>
+  </si>
+  <si>
+    <t>manufacturer_range_max</t>
+  </si>
+  <si>
+    <t>instrument_metadata.manufacturer_range[1]</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>instrument_metadata.unit</t>
+  </si>
+  <si>
+    <t>graduation_interval</t>
+  </si>
+  <si>
+    <t>instrument_metadata.graduation_interval</t>
+  </si>
+  <si>
+    <t>needle_color</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>instrument_metadata.needle_color</t>
+  </si>
+  <si>
+    <t>fps</t>
+  </si>
+  <si>
+    <t>video_metadata.fps</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>1080x1920</t>
+  </si>
+  <si>
+    <t>video_metadata.resolution</t>
+  </si>
+  <si>
+    <t>duration_ms</t>
+  </si>
+  <si>
+    <t>video_metadata.duration_ms</t>
+  </si>
+  <si>
+    <t>lighting_condition</t>
+  </si>
+  <si>
+    <t>stabilized_industrial</t>
+  </si>
+  <si>
+    <t>video_metadata.lighting_condition</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>environmental_tags</t>
+  </si>
+  <si>
+    <t>Vernier Caliper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +171,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444746"/>
+      <name val="Google Sans Text"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -104,14 +222,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,14 +556,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6CF076-B02F-4F30-88B8-001E4B7CFDC5}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="42.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65489</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -429,7 +773,7 @@
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -457,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -471,7 +815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -485,7 +829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -499,7 +843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -513,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -527,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -541,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -555,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -569,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -583,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -597,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -611,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -625,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -639,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -653,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -667,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -681,7 +1025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -695,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -709,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -723,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -737,7 +1081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -751,7 +1095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -765,7 +1109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -779,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -793,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -807,7 +1151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -821,7 +1165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -835,7 +1179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -849,7 +1193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -863,7 +1207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -877,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -891,7 +1235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -905,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -919,7 +1263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -933,7 +1277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -947,7 +1291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -961,7 +1305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -975,7 +1319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -989,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1003,7 +1347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1017,7 +1361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1059,7 +1403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1073,7 +1417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1101,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1157,7 +1501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1185,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1241,7 +1585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1255,7 +1599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -1269,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1297,7 +1641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1353,7 +1697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +1711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -1395,7 +1739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +1851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -1521,7 +1865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -1577,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -1633,7 +1977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +2019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +2033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +2047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -1717,7 +2061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +2075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +2089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +2103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +2117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -1787,7 +2131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +2145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +2159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +2173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -1843,7 +2187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +2201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -1871,7 +2215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -1885,7 +2229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +2243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -1913,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -1927,7 +2271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -1941,7 +2285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +2299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +2313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +2327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -1997,7 +2341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -2011,7 +2355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +2369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -2039,7 +2383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>4</v>
       </c>
